--- a/3d_performance_graph.xlsx
+++ b/3d_performance_graph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VALERIA\shared-folder\Nbody\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\shared-folder\nbody\Nbody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208443B9-CA57-4A62-A8B5-AA1A50D8350A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52C12BF-EA7C-4114-9A13-3829921B6E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07CCAF64-59D6-416E-869F-6D7B51265D04}"/>
   </bookViews>
@@ -100,11 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -181,7 +182,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -481,22 +482,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>12.3764</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2124600000000001</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.2907500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1170499999999999</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7753500000000004</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0272100000000002</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,7 +1099,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1837019407"/>
@@ -1156,7 +1157,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1837019407"/>
@@ -1195,7 +1196,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1233,7 +1234,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1272,7 +1273,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1723,7 +1724,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701506687"/>
@@ -1781,7 +1782,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701499615"/>
@@ -1821,7 +1822,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1859,7 +1860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1907,7 +1908,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2062,7 +2063,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2283,7 +2284,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2468,7 +2469,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701506687"/>
@@ -2526,7 +2527,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1701499615"/>
@@ -2567,7 +2568,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2615,7 +2616,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4648,7 +4649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4658,8 +4659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A155EF5-3289-4E46-99D1-61DD4EEF4B55}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4673,7 +4674,7 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1000</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4775,9 +4776,9 @@
         <v>29.965699999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>12.3764</v>
-      </c>
-      <c r="D3" s="3">
+        <v>30.1</v>
+      </c>
+      <c r="D3" s="4">
         <v>119.1</v>
       </c>
       <c r="E3" s="2">
@@ -4820,7 +4821,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>18.856999999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>9.2124600000000001</v>
+        <v>26.4</v>
       </c>
       <c r="D4" s="3">
         <v>79.900000000000006</v>
@@ -4872,8 +4873,9 @@
       <c r="R4" s="2">
         <v>47.09</v>
       </c>
+      <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4926,7 +4928,7 @@
         <v>58.46</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4934,7 +4936,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C6" s="2">
-        <v>4.1170499999999999</v>
+        <v>4.7</v>
       </c>
       <c r="D6" s="3">
         <v>33</v>
@@ -4949,7 +4951,7 @@
         <v>43.291800000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -4957,7 +4959,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>4.7753500000000004</v>
+        <v>4.2</v>
       </c>
       <c r="D7" s="3">
         <v>28.8</v>
@@ -4972,7 +4974,7 @@
         <v>40.726100000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -4980,7 +4982,7 @@
         <v>6.5</v>
       </c>
       <c r="C8" s="2">
-        <v>4.0272100000000002</v>
+        <v>3.9</v>
       </c>
       <c r="D8" s="3">
         <v>26</v>
@@ -4995,7 +4997,7 @@
         <v>37.440899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -5012,7 +5014,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -5029,7 +5031,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -5046,7 +5048,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>18</v>
       </c>
@@ -5063,7 +5065,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -5080,7 +5082,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>22</v>
       </c>
@@ -5097,7 +5099,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>24</v>
       </c>
@@ -5114,7 +5116,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5136,12 +5138,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5360,15 +5359,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC39615-7DFD-407B-9CCD-10F8706D6B8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49FFCED4-597D-4232-98D5-F82A81B0F00C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5393,10 +5396,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49FFCED4-597D-4232-98D5-F82A81B0F00C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC39615-7DFD-407B-9CCD-10F8706D6B8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>